--- a/curso/compras.xlsx
+++ b/curso/compras.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15854" windowHeight="8343" activeTab="3"/>
+    <workbookView windowWidth="9600" windowHeight="7971" tabRatio="761" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="companhia" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,6 +178,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -185,9 +238,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,104 +298,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,97 +314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,79 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,11 +554,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -575,173 +599,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,11 +749,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1077,24 +1074,24 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="12.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.36974789915966" customWidth="1"/>
-    <col min="2" max="2" width="10.1176470588235" customWidth="1"/>
-    <col min="3" max="3" width="6.3781512605042" customWidth="1"/>
+    <col min="1" max="1" width="9.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.1166666666667" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1142,29 +1139,29 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.3697478991597" customWidth="1"/>
-    <col min="2" max="2" width="9.87394957983193" customWidth="1"/>
-    <col min="3" max="3" width="11.2436974789916" customWidth="1"/>
-    <col min="4" max="4" width="8.63025210084034" customWidth="1"/>
+    <col min="1" max="1" width="11.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.2416666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1236,24 +1233,24 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.7478991596639" customWidth="1"/>
-    <col min="2" max="2" width="4.3781512605042" customWidth="1"/>
-    <col min="3" max="3" width="13.4873949579832" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="13.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1312,29 +1309,29 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="12.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.63025210084034" customWidth="1"/>
-    <col min="2" max="2" width="7.3781512605042" customWidth="1"/>
-    <col min="3" max="3" width="10.2521008403361" customWidth="1"/>
-    <col min="4" max="4" width="10.4873949579832" customWidth="1"/>
+    <col min="1" max="1" width="8.63333333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
